--- a/files/raffle/eof_users.xlsx
+++ b/files/raffle/eof_users.xlsx
@@ -28,7 +28,7 @@
     <t>ticket_number</t>
   </si>
   <si>
-    <t>Иванов</t>
+    <t>Логвинов</t>
   </si>
 </sst>
 </file>
@@ -382,7 +382,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2">
         <v>300970915</v>
@@ -391,7 +391,7 @@
         <v>4</v>
       </c>
       <c r="D2">
-        <v>123</v>
+        <v>1211</v>
       </c>
     </row>
   </sheetData>
